--- a/backend/app/controllers/calculate.xlsx
+++ b/backend/app/controllers/calculate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Vehicle Payment Calculator</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Length of loan (in months)</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>Monthly payment</t>
@@ -376,7 +379,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
@@ -420,33 +423,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" ht="12" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <f>PMT(B5/12,B6,B2-(B3+B4))</f>
-        <v>-303.56853863066425</v>
+        <v>-1424.6223449686547</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <f>-(B8*B6)+(B3+B4)</f>
-        <v>19714.112317839856</v>
+        <v>20020.09048459251</v>
       </c>
     </row>
   </sheetData>
